--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.04225366666666666</v>
+        <v>0.09321450000000001</v>
       </c>
       <c r="N2">
-        <v>0.126761</v>
+        <v>0.186429</v>
       </c>
       <c r="O2">
-        <v>0.03359366718256408</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.04955808191875369</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.754722311628333</v>
+        <v>4.097985210634</v>
       </c>
       <c r="R2">
-        <v>15.792500804655</v>
+        <v>24.587911263804</v>
       </c>
       <c r="S2">
-        <v>0.004631448451285765</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="T2">
-        <v>0.00723249617862567</v>
+        <v>0.1297146081693155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.528285</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H3">
-        <v>124.584855</v>
+        <v>216.066395</v>
       </c>
       <c r="I3">
-        <v>0.137866712381124</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J3">
-        <v>0.145939792231724</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.215533</v>
+        <v>0.09321450000000001</v>
       </c>
       <c r="N3">
-        <v>2.431066</v>
+        <v>0.186429</v>
       </c>
       <c r="O3">
-        <v>0.9664063328174359</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9504419180812462</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>50.479000850905</v>
+        <v>6.7135069922425</v>
       </c>
       <c r="R3">
-        <v>302.87400510543</v>
+        <v>40.281041953455</v>
       </c>
       <c r="S3">
-        <v>0.1332352639298382</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="T3">
-        <v>0.1387072960530983</v>
+        <v>0.212504409894141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.02213166666667</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H4">
-        <v>216.066395</v>
+        <v>225.82763</v>
       </c>
       <c r="I4">
-        <v>0.2391010009578718</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J4">
-        <v>0.2531020708300187</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.04225366666666666</v>
+        <v>0.09321450000000001</v>
       </c>
       <c r="N4">
-        <v>0.126761</v>
+        <v>0.186429</v>
       </c>
       <c r="O4">
-        <v>0.03359366718256408</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.04955808191875369</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.043199144066111</v>
+        <v>7.016803205545</v>
       </c>
       <c r="R4">
-        <v>27.388792296595</v>
+        <v>42.10081923327</v>
       </c>
       <c r="S4">
-        <v>0.00803227944919668</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="T4">
-        <v>0.01254325316000026</v>
+        <v>0.2221047250357578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.02213166666667</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H5">
-        <v>216.066395</v>
+        <v>175.996674</v>
       </c>
       <c r="I5">
-        <v>0.2391010009578718</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J5">
-        <v>0.2531020708300187</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.215533</v>
+        <v>0.09321450000000001</v>
       </c>
       <c r="N5">
-        <v>2.431066</v>
+        <v>0.186429</v>
       </c>
       <c r="O5">
-        <v>0.9664063328174359</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9504419180812462</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>87.54527777117833</v>
+        <v>8.202720984286501</v>
       </c>
       <c r="R5">
-        <v>525.27166662707</v>
+        <v>32.810883937146</v>
       </c>
       <c r="S5">
-        <v>0.2310687215086751</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="T5">
-        <v>0.2405588176700184</v>
+        <v>0.1730952624618072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,356 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.33487700000001</v>
+        <v>88.99412</v>
       </c>
       <c r="H6">
-        <v>196.004631</v>
+        <v>266.98236</v>
       </c>
       <c r="I6">
-        <v>0.2169004738773853</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J6">
-        <v>0.2296015444621718</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.04225366666666666</v>
+        <v>0.09321450000000001</v>
       </c>
       <c r="N6">
-        <v>0.126761</v>
+        <v>0.186429</v>
       </c>
       <c r="O6">
-        <v>0.03359366718256408</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.04955808191875369</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.760638114465666</v>
+        <v>8.29554239874</v>
       </c>
       <c r="R6">
-        <v>24.845743030191</v>
+        <v>49.77325439243999</v>
       </c>
       <c r="S6">
-        <v>0.007286482331177314</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="T6">
-        <v>0.01137861214912868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>65.33487700000001</v>
-      </c>
-      <c r="H7">
-        <v>196.004631</v>
-      </c>
-      <c r="I7">
-        <v>0.2169004738773853</v>
-      </c>
-      <c r="J7">
-        <v>0.2296015444621718</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.215533</v>
-      </c>
-      <c r="N7">
-        <v>2.431066</v>
-      </c>
-      <c r="O7">
-        <v>0.9664063328174359</v>
-      </c>
-      <c r="P7">
-        <v>0.9504419180812462</v>
-      </c>
-      <c r="Q7">
-        <v>79.416699044441</v>
-      </c>
-      <c r="R7">
-        <v>476.500194266646</v>
-      </c>
-      <c r="S7">
-        <v>0.209613991546208</v>
-      </c>
-      <c r="T7">
-        <v>0.2182229323130431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>49.988644</v>
-      </c>
-      <c r="H8">
-        <v>99.977288</v>
-      </c>
-      <c r="I8">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J8">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04225366666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.126761</v>
-      </c>
-      <c r="O8">
-        <v>0.03359366718256408</v>
-      </c>
-      <c r="P8">
-        <v>0.04955808191875369</v>
-      </c>
-      <c r="Q8">
-        <v>2.112203500694666</v>
-      </c>
-      <c r="R8">
-        <v>12.673221004168</v>
-      </c>
-      <c r="S8">
-        <v>0.005574991306182652</v>
-      </c>
-      <c r="T8">
-        <v>0.005803958702760123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.988644</v>
-      </c>
-      <c r="H9">
-        <v>99.977288</v>
-      </c>
-      <c r="I9">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J9">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.215533</v>
-      </c>
-      <c r="N9">
-        <v>2.431066</v>
-      </c>
-      <c r="O9">
-        <v>0.9664063328174359</v>
-      </c>
-      <c r="P9">
-        <v>0.9504419180812462</v>
-      </c>
-      <c r="Q9">
-        <v>60.762846407252</v>
-      </c>
-      <c r="R9">
-        <v>243.051385629008</v>
-      </c>
-      <c r="S9">
-        <v>0.1603786473926078</v>
-      </c>
-      <c r="T9">
-        <v>0.1113103136428731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H10">
-        <v>217.039795</v>
-      </c>
-      <c r="I10">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J10">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04225366666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.126761</v>
-      </c>
-      <c r="O10">
-        <v>0.03359366718256408</v>
-      </c>
-      <c r="P10">
-        <v>0.04955808191875369</v>
-      </c>
-      <c r="Q10">
-        <v>3.056909050443889</v>
-      </c>
-      <c r="R10">
-        <v>27.512181453995</v>
-      </c>
-      <c r="S10">
-        <v>0.008068465644721664</v>
-      </c>
-      <c r="T10">
-        <v>0.01259976172823895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H11">
-        <v>217.039795</v>
-      </c>
-      <c r="I11">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J11">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.215533</v>
-      </c>
-      <c r="N11">
-        <v>2.431066</v>
-      </c>
-      <c r="O11">
-        <v>0.9664063328174359</v>
-      </c>
-      <c r="P11">
-        <v>0.9504419180812462</v>
-      </c>
-      <c r="Q11">
-        <v>87.93967771191168</v>
-      </c>
-      <c r="R11">
-        <v>527.6380662714701</v>
-      </c>
-      <c r="S11">
-        <v>0.2321097084401068</v>
-      </c>
-      <c r="T11">
-        <v>0.2416425584022132</v>
+        <v>0.2625809944389785</v>
       </c>
     </row>
   </sheetData>
